--- a/halp/notebook/data/lenet_train_loss_all_temporal.xlsx
+++ b/halp/notebook/data/lenet_train_loss_all_temporal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -651,11 +651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="270193440"/>
-        <c:axId val="198356128"/>
+        <c:axId val="512205456"/>
+        <c:axId val="465305888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="270193440"/>
+        <c:axId val="512205456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -753,7 +753,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198356128"/>
+        <c:crossAx val="465305888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -761,7 +761,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198356128"/>
+        <c:axId val="465305888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -874,7 +874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="270193440"/>
+        <c:crossAx val="512205456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1508,10 +1508,10 @@
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1822,8 +1822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
